--- a/data/pca/factorExposure/factorExposure_2014-07-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007074631624137253</v>
+        <v>0.0193194189417414</v>
       </c>
       <c r="C2">
-        <v>0.1268795031448813</v>
+        <v>-0.07205350840700354</v>
       </c>
       <c r="D2">
-        <v>0.03441858092533814</v>
+        <v>0.03477142011631033</v>
       </c>
       <c r="E2">
-        <v>-0.2176537332941052</v>
+        <v>-0.01564804607396444</v>
       </c>
       <c r="F2">
-        <v>-0.06879156738142908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02450273509373896</v>
+      </c>
+      <c r="G2">
+        <v>0.1578409691145039</v>
+      </c>
+      <c r="H2">
+        <v>0.0358179473980051</v>
+      </c>
+      <c r="I2">
+        <v>0.02122883774810787</v>
+      </c>
+      <c r="J2">
+        <v>0.1151233713637454</v>
+      </c>
+      <c r="K2">
+        <v>-0.04974223545005943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01448673025204092</v>
+        <v>0.01994049754644336</v>
       </c>
       <c r="C4">
-        <v>0.1716660897765855</v>
+        <v>-0.141791633102283</v>
       </c>
       <c r="D4">
-        <v>0.04481425119137346</v>
+        <v>0.06673070804847522</v>
       </c>
       <c r="E4">
-        <v>-0.06208895982066635</v>
+        <v>-0.005683014835778855</v>
       </c>
       <c r="F4">
-        <v>0.08775101353618552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06077897506665669</v>
+      </c>
+      <c r="G4">
+        <v>0.03407594152763324</v>
+      </c>
+      <c r="H4">
+        <v>-0.006623787332949408</v>
+      </c>
+      <c r="I4">
+        <v>-0.05222302743603531</v>
+      </c>
+      <c r="J4">
+        <v>0.09033196242624902</v>
+      </c>
+      <c r="K4">
+        <v>0.01281304167131877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.0348269750946947</v>
+        <v>0.04093913878787406</v>
       </c>
       <c r="C6">
-        <v>0.07332700217072448</v>
+        <v>-0.08521251228682941</v>
       </c>
       <c r="D6">
-        <v>0.05994526662206005</v>
+        <v>0.02992041803834019</v>
       </c>
       <c r="E6">
-        <v>-0.07307722865107466</v>
+        <v>0.02446287770663576</v>
       </c>
       <c r="F6">
-        <v>0.005710491801443339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02265274945665505</v>
+      </c>
+      <c r="G6">
+        <v>0.04888911734044182</v>
+      </c>
+      <c r="H6">
+        <v>-0.04291098172026648</v>
+      </c>
+      <c r="I6">
+        <v>-0.05726356307781701</v>
+      </c>
+      <c r="J6">
+        <v>-0.01938607082570475</v>
+      </c>
+      <c r="K6">
+        <v>-0.04293112064956457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.02121011827868746</v>
+        <v>0.01915066287190122</v>
       </c>
       <c r="C7">
-        <v>0.08588529049943333</v>
+        <v>-0.07209950436176699</v>
       </c>
       <c r="D7">
-        <v>0.05178676146824513</v>
+        <v>0.03401339810304795</v>
       </c>
       <c r="E7">
-        <v>-0.01524019480385983</v>
+        <v>0.003765337432030807</v>
       </c>
       <c r="F7">
-        <v>-0.002082803597577671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01178397051801163</v>
+      </c>
+      <c r="G7">
+        <v>-0.009336245867512409</v>
+      </c>
+      <c r="H7">
+        <v>-0.0154152667449104</v>
+      </c>
+      <c r="I7">
+        <v>-0.0571153084734532</v>
+      </c>
+      <c r="J7">
+        <v>0.09580202338806343</v>
+      </c>
+      <c r="K7">
+        <v>-0.02655429869407416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0093961939041248</v>
+        <v>0.00189986390590244</v>
       </c>
       <c r="C8">
-        <v>0.07161411643131134</v>
+        <v>-0.06165849712532057</v>
       </c>
       <c r="D8">
-        <v>0.03588561838512994</v>
+        <v>0.04770901020462086</v>
       </c>
       <c r="E8">
-        <v>-0.07072176421084347</v>
+        <v>0.03601464428638762</v>
       </c>
       <c r="F8">
-        <v>0.02093299686786999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02424767124464821</v>
+      </c>
+      <c r="G8">
+        <v>0.06123024369344322</v>
+      </c>
+      <c r="H8">
+        <v>0.01561641128417799</v>
+      </c>
+      <c r="I8">
+        <v>-0.05115207266665209</v>
+      </c>
+      <c r="J8">
+        <v>0.009898034064991344</v>
+      </c>
+      <c r="K8">
+        <v>0.00946141321012112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.009082534770063598</v>
+        <v>0.013354820968865</v>
       </c>
       <c r="C9">
-        <v>0.1216206236796847</v>
+        <v>-0.09953516972532842</v>
       </c>
       <c r="D9">
-        <v>0.05385206522071391</v>
+        <v>0.04248177185552465</v>
       </c>
       <c r="E9">
-        <v>-0.01414201434893947</v>
+        <v>-0.02594778123786265</v>
       </c>
       <c r="F9">
-        <v>0.0233647719866139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.03007396675763203</v>
+      </c>
+      <c r="G9">
+        <v>0.02395412608618575</v>
+      </c>
+      <c r="H9">
+        <v>0.013317581804568</v>
+      </c>
+      <c r="I9">
+        <v>-0.05706784833599907</v>
+      </c>
+      <c r="J9">
+        <v>0.09579503862391436</v>
+      </c>
+      <c r="K9">
+        <v>-0.01311392464747934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2536821520487242</v>
+        <v>0.2456797797759021</v>
       </c>
       <c r="C10">
-        <v>-0.07911981737770007</v>
+        <v>0.09466702730691498</v>
       </c>
       <c r="D10">
-        <v>-0.02843991714682814</v>
+        <v>-0.009561774024754797</v>
       </c>
       <c r="E10">
-        <v>0.03148212287693401</v>
+        <v>0.05990640035301354</v>
       </c>
       <c r="F10">
-        <v>0.03526008524607057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01110370883751823</v>
+      </c>
+      <c r="G10">
+        <v>0.01805941645350642</v>
+      </c>
+      <c r="H10">
+        <v>-0.02942352498413955</v>
+      </c>
+      <c r="I10">
+        <v>-0.04480317084578776</v>
+      </c>
+      <c r="J10">
+        <v>0.01749511862361489</v>
+      </c>
+      <c r="K10">
+        <v>0.1399590525632295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.006708679775193419</v>
+        <v>0.01772473867236176</v>
       </c>
       <c r="C11">
-        <v>0.06965072461734392</v>
+        <v>-0.07831797927578084</v>
       </c>
       <c r="D11">
-        <v>0.03254745422311178</v>
+        <v>0.04136972868923388</v>
       </c>
       <c r="E11">
-        <v>0.01958486701799137</v>
+        <v>-0.01477739150483378</v>
       </c>
       <c r="F11">
-        <v>0.0154495154280245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.004594551069020168</v>
+      </c>
+      <c r="G11">
+        <v>-0.0104651053611256</v>
+      </c>
+      <c r="H11">
+        <v>0.002943197788367792</v>
+      </c>
+      <c r="I11">
+        <v>-0.0243091947906407</v>
+      </c>
+      <c r="J11">
+        <v>0.02642829069391329</v>
+      </c>
+      <c r="K11">
+        <v>-0.02799777693267629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.005948905254752637</v>
+        <v>0.01712245654584326</v>
       </c>
       <c r="C12">
-        <v>0.04799879038160728</v>
+        <v>-0.05266727973851793</v>
       </c>
       <c r="D12">
-        <v>0.03185184250337608</v>
+        <v>0.02766611019404577</v>
       </c>
       <c r="E12">
-        <v>0.01892913352292444</v>
+        <v>-0.0111905852085667</v>
       </c>
       <c r="F12">
-        <v>-0.01048325039508271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01579741023391622</v>
+      </c>
+      <c r="G12">
+        <v>0.002702278628544474</v>
+      </c>
+      <c r="H12">
+        <v>-0.01427087520746046</v>
+      </c>
+      <c r="I12">
+        <v>-0.03126808951993437</v>
+      </c>
+      <c r="J12">
+        <v>0.01998151482501552</v>
+      </c>
+      <c r="K12">
+        <v>-0.01020314613897053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01201832044517379</v>
+        <v>0.006518667974270509</v>
       </c>
       <c r="C13">
-        <v>0.1221702321176182</v>
+        <v>-0.1081219984442288</v>
       </c>
       <c r="D13">
-        <v>0.07181095993428675</v>
+        <v>0.04519884028214302</v>
       </c>
       <c r="E13">
-        <v>-0.0463041161146134</v>
+        <v>-0.01053628985554021</v>
       </c>
       <c r="F13">
-        <v>-0.05979519530618561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02413109534297542</v>
+      </c>
+      <c r="G13">
+        <v>0.1609528048121412</v>
+      </c>
+      <c r="H13">
+        <v>-0.09026964223287644</v>
+      </c>
+      <c r="I13">
+        <v>-0.01608959686838931</v>
+      </c>
+      <c r="J13">
+        <v>0.2118540483895225</v>
+      </c>
+      <c r="K13">
+        <v>0.1450803653381388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01149217436636447</v>
+        <v>0.02117687129584266</v>
       </c>
       <c r="C14">
-        <v>0.07965038500670091</v>
+        <v>-0.07254999019681753</v>
       </c>
       <c r="D14">
-        <v>0.04565390496116609</v>
+        <v>0.04979459335623847</v>
       </c>
       <c r="E14">
-        <v>-0.02211780237501538</v>
+        <v>0.004921080408146867</v>
       </c>
       <c r="F14">
-        <v>-0.03274437340637623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03166332045741137</v>
+      </c>
+      <c r="G14">
+        <v>0.0287951172143525</v>
+      </c>
+      <c r="H14">
+        <v>-0.05441092564150048</v>
+      </c>
+      <c r="I14">
+        <v>-0.1437312192559394</v>
+      </c>
+      <c r="J14">
+        <v>0.145508601048399</v>
+      </c>
+      <c r="K14">
+        <v>-0.03184987161866644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.00316563913975273</v>
+        <v>0.003123867973786106</v>
       </c>
       <c r="C15">
-        <v>0.07929474033121316</v>
+        <v>-0.07231113599022174</v>
       </c>
       <c r="D15">
-        <v>0.02757999052183155</v>
+        <v>0.03269471174776544</v>
       </c>
       <c r="E15">
-        <v>-0.0300982825996312</v>
+        <v>0.002023586199990859</v>
       </c>
       <c r="F15">
-        <v>0.01378135797426899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03416168286377202</v>
+      </c>
+      <c r="G15">
+        <v>0.01573703155060206</v>
+      </c>
+      <c r="H15">
+        <v>-0.01235466368095866</v>
+      </c>
+      <c r="I15">
+        <v>-0.06221015910456721</v>
+      </c>
+      <c r="J15">
+        <v>0.05532770395816664</v>
+      </c>
+      <c r="K15">
+        <v>-0.030313359248128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.008399687094590729</v>
+        <v>0.0167097017587616</v>
       </c>
       <c r="C16">
-        <v>0.05547341289317859</v>
+        <v>-0.05965650961001948</v>
       </c>
       <c r="D16">
-        <v>0.02700637577736036</v>
+        <v>0.02740432437327878</v>
       </c>
       <c r="E16">
-        <v>0.01485826944082086</v>
+        <v>-0.01063620443471188</v>
       </c>
       <c r="F16">
-        <v>0.002171837758915434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0004407060846025256</v>
+      </c>
+      <c r="G16">
+        <v>-0.006474392394153229</v>
+      </c>
+      <c r="H16">
+        <v>-0.0007469283800138858</v>
+      </c>
+      <c r="I16">
+        <v>-0.01585791511066666</v>
+      </c>
+      <c r="J16">
+        <v>0.0188330229812327</v>
+      </c>
+      <c r="K16">
+        <v>-0.01886498705899726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01175272445448025</v>
+        <v>0.01499324006476169</v>
       </c>
       <c r="C20">
-        <v>0.09479638653181377</v>
+        <v>-0.08437931017133964</v>
       </c>
       <c r="D20">
-        <v>0.037004850192905</v>
+        <v>0.02795166980552812</v>
       </c>
       <c r="E20">
-        <v>0.03664066651432366</v>
+        <v>0.008365996002861243</v>
       </c>
       <c r="F20">
-        <v>0.00244499193068456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01488593670374005</v>
+      </c>
+      <c r="G20">
+        <v>-0.01788765383633847</v>
+      </c>
+      <c r="H20">
+        <v>-0.02075023011641132</v>
+      </c>
+      <c r="I20">
+        <v>-0.06680151284153792</v>
+      </c>
+      <c r="J20">
+        <v>0.05090141638656365</v>
+      </c>
+      <c r="K20">
+        <v>-0.01640034540096926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.006090891711899126</v>
+        <v>0.01346895099867323</v>
       </c>
       <c r="C21">
-        <v>0.08528028910922396</v>
+        <v>-0.0682941916106434</v>
       </c>
       <c r="D21">
-        <v>-0.00515032275365336</v>
+        <v>0.01937658494016577</v>
       </c>
       <c r="E21">
-        <v>-0.04015790687445296</v>
+        <v>0.01724282481943085</v>
       </c>
       <c r="F21">
-        <v>-0.07897766949656333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06376011110170188</v>
+      </c>
+      <c r="G21">
+        <v>0.07092039181162024</v>
+      </c>
+      <c r="H21">
+        <v>0.001334737908203125</v>
+      </c>
+      <c r="I21">
+        <v>-0.0821207281541977</v>
+      </c>
+      <c r="J21">
+        <v>0.1149349872003179</v>
+      </c>
+      <c r="K21">
+        <v>0.008698747445795098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.007048955275993939</v>
+        <v>0.008372798721174557</v>
       </c>
       <c r="C22">
-        <v>0.2315247899869055</v>
+        <v>-0.1701941109326127</v>
       </c>
       <c r="D22">
-        <v>-0.07213891200104768</v>
+        <v>0.02083647469661183</v>
       </c>
       <c r="E22">
-        <v>-0.3410985011915154</v>
+        <v>0.02438524879217161</v>
       </c>
       <c r="F22">
-        <v>0.2588551160451975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3559792323786767</v>
+      </c>
+      <c r="G22">
+        <v>0.3713422324495285</v>
+      </c>
+      <c r="H22">
+        <v>-0.06230208972269306</v>
+      </c>
+      <c r="I22">
+        <v>0.2759734200400974</v>
+      </c>
+      <c r="J22">
+        <v>-0.2080638451468395</v>
+      </c>
+      <c r="K22">
+        <v>-0.03484013527623018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.007993341017549055</v>
+        <v>0.01347790559531951</v>
       </c>
       <c r="C23">
-        <v>0.2350250017831981</v>
+        <v>-0.1734240257688595</v>
       </c>
       <c r="D23">
-        <v>-0.07696253196923218</v>
+        <v>0.02051491542087759</v>
       </c>
       <c r="E23">
-        <v>-0.3354564082381495</v>
+        <v>0.01977316006205339</v>
       </c>
       <c r="F23">
-        <v>0.2557099460017924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3458138015728783</v>
+      </c>
+      <c r="G23">
+        <v>0.362099798966258</v>
+      </c>
+      <c r="H23">
+        <v>-0.05898574463062661</v>
+      </c>
+      <c r="I23">
+        <v>0.2592632719895813</v>
+      </c>
+      <c r="J23">
+        <v>-0.1913348734356448</v>
+      </c>
+      <c r="K23">
+        <v>-0.03907207246932983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.006411258089513081</v>
+        <v>0.0173350847502993</v>
       </c>
       <c r="C24">
-        <v>0.06117102983362466</v>
+        <v>-0.06321276428940388</v>
       </c>
       <c r="D24">
-        <v>0.04467106953256145</v>
+        <v>0.04140404424981154</v>
       </c>
       <c r="E24">
-        <v>0.0142594485478832</v>
+        <v>-0.01335595157832977</v>
       </c>
       <c r="F24">
-        <v>0.009444749851738663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.003900740414879447</v>
+      </c>
+      <c r="G24">
+        <v>-0.006085448638656228</v>
+      </c>
+      <c r="H24">
+        <v>-0.01020331442469039</v>
+      </c>
+      <c r="I24">
+        <v>-0.02952451879225032</v>
+      </c>
+      <c r="J24">
+        <v>0.03557268137356911</v>
+      </c>
+      <c r="K24">
+        <v>-0.02141528775308229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.006725515143179697</v>
+        <v>0.02143506240207916</v>
       </c>
       <c r="C25">
-        <v>0.06691367240279462</v>
+        <v>-0.06700890836246716</v>
       </c>
       <c r="D25">
-        <v>0.02174960829449179</v>
+        <v>0.03411060027409875</v>
       </c>
       <c r="E25">
-        <v>0.01788825178339212</v>
+        <v>-0.01747747759863432</v>
       </c>
       <c r="F25">
-        <v>0.001289739637261913</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.006331769713434575</v>
+      </c>
+      <c r="G25">
+        <v>-0.004076958659430445</v>
+      </c>
+      <c r="H25">
+        <v>-0.001786027266796467</v>
+      </c>
+      <c r="I25">
+        <v>-0.02672289095492687</v>
+      </c>
+      <c r="J25">
+        <v>0.03229904659364232</v>
+      </c>
+      <c r="K25">
+        <v>-0.01169584886684439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01123112059879085</v>
+        <v>0.02148110328549155</v>
       </c>
       <c r="C26">
-        <v>0.04541715335838569</v>
+        <v>-0.05294774612226216</v>
       </c>
       <c r="D26">
-        <v>0.0770196414298854</v>
+        <v>0.06202227403220791</v>
       </c>
       <c r="E26">
-        <v>0.01221912920428784</v>
+        <v>-0.01241348225040433</v>
       </c>
       <c r="F26">
-        <v>-0.03469241476609611</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008942938072658838</v>
+      </c>
+      <c r="G26">
+        <v>-0.009335614904165724</v>
+      </c>
+      <c r="H26">
+        <v>0.02402126737865035</v>
+      </c>
+      <c r="I26">
+        <v>-0.05185458807379457</v>
+      </c>
+      <c r="J26">
+        <v>0.1108249714749715</v>
+      </c>
+      <c r="K26">
+        <v>-0.0566839662940703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3487417062828322</v>
+        <v>0.3084921894932032</v>
       </c>
       <c r="C28">
-        <v>-0.0929455730542172</v>
+        <v>0.1141679350227392</v>
       </c>
       <c r="D28">
-        <v>-0.02442755232005867</v>
+        <v>-0.03536080287380144</v>
       </c>
       <c r="E28">
-        <v>0.04423207041643957</v>
+        <v>0.01208202892128044</v>
       </c>
       <c r="F28">
-        <v>0.00963199356037414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01634778715104332</v>
+      </c>
+      <c r="G28">
+        <v>0.04714948228641597</v>
+      </c>
+      <c r="H28">
+        <v>0.1203429967002576</v>
+      </c>
+      <c r="I28">
+        <v>-0.004499034671929049</v>
+      </c>
+      <c r="J28">
+        <v>0.04192420268374934</v>
+      </c>
+      <c r="K28">
+        <v>0.2133156208460466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.006583985760894656</v>
+        <v>0.01783167566833428</v>
       </c>
       <c r="C29">
-        <v>0.08396365129591966</v>
+        <v>-0.08143117362938697</v>
       </c>
       <c r="D29">
-        <v>0.05189871254025172</v>
+        <v>0.05033132758230276</v>
       </c>
       <c r="E29">
-        <v>-0.009499950779193259</v>
+        <v>-0.01893821469950314</v>
       </c>
       <c r="F29">
-        <v>-0.02083766473695228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03122251633858053</v>
+      </c>
+      <c r="G29">
+        <v>0.02880166520385929</v>
+      </c>
+      <c r="H29">
+        <v>-0.09781977123010305</v>
+      </c>
+      <c r="I29">
+        <v>-0.2016247854627934</v>
+      </c>
+      <c r="J29">
+        <v>0.2055120915745707</v>
+      </c>
+      <c r="K29">
+        <v>-0.01931221322022277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0263642475264641</v>
+        <v>0.03516756508611713</v>
       </c>
       <c r="C30">
-        <v>0.1676178162774987</v>
+        <v>-0.1410907003849292</v>
       </c>
       <c r="D30">
-        <v>0.06746733742204103</v>
+        <v>0.05732809702891548</v>
       </c>
       <c r="E30">
-        <v>-0.04353847820686267</v>
+        <v>0.01174483151806535</v>
       </c>
       <c r="F30">
-        <v>0.02994893906568879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04236189852927716</v>
+      </c>
+      <c r="G30">
+        <v>0.03791843880599167</v>
+      </c>
+      <c r="H30">
+        <v>-0.01267644921025143</v>
+      </c>
+      <c r="I30">
+        <v>-0.04358144483116792</v>
+      </c>
+      <c r="J30">
+        <v>0.01771808758172781</v>
+      </c>
+      <c r="K30">
+        <v>-0.04652514088233441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.00349077119053589</v>
+        <v>0.01483216187025752</v>
       </c>
       <c r="C31">
-        <v>0.0514940674026892</v>
+        <v>-0.07589187607608137</v>
       </c>
       <c r="D31">
-        <v>0.03139244543474103</v>
+        <v>0.04298950652361427</v>
       </c>
       <c r="E31">
-        <v>0.0216076211392701</v>
+        <v>-0.001013636581050337</v>
       </c>
       <c r="F31">
-        <v>-0.003565087246335982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.006773340846567074</v>
+      </c>
+      <c r="G31">
+        <v>0.004348383950051509</v>
+      </c>
+      <c r="H31">
+        <v>0.03324622801757282</v>
+      </c>
+      <c r="I31">
+        <v>-0.02454454232811009</v>
+      </c>
+      <c r="J31">
+        <v>0.02631646483485714</v>
+      </c>
+      <c r="K31">
+        <v>-0.01037719658692064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01660449624172001</v>
+        <v>0.02237862021279773</v>
       </c>
       <c r="C32">
-        <v>0.07620663049422179</v>
+        <v>-0.05624347151782368</v>
       </c>
       <c r="D32">
-        <v>0.01290637725452186</v>
+        <v>0.02825707310378097</v>
       </c>
       <c r="E32">
-        <v>-0.147778659822092</v>
+        <v>-0.02512442736159819</v>
       </c>
       <c r="F32">
-        <v>-0.013909894183771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.01367410260919752</v>
+      </c>
+      <c r="G32">
+        <v>0.115929319983998</v>
+      </c>
+      <c r="H32">
+        <v>-0.03905204843690609</v>
+      </c>
+      <c r="I32">
+        <v>-0.07273645340815184</v>
+      </c>
+      <c r="J32">
+        <v>0.1609128430858051</v>
+      </c>
+      <c r="K32">
+        <v>0.2340233023040313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01021420141690867</v>
+        <v>0.0175485269861014</v>
       </c>
       <c r="C33">
-        <v>0.09659413424686254</v>
+        <v>-0.1012884442685254</v>
       </c>
       <c r="D33">
-        <v>0.06155957836875751</v>
+        <v>0.05350917915521578</v>
       </c>
       <c r="E33">
-        <v>-0.002228746274535037</v>
+        <v>0.00583143506750464</v>
       </c>
       <c r="F33">
-        <v>0.00425497768728584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01968234687821472</v>
+      </c>
+      <c r="G33">
+        <v>0.01213966984238389</v>
+      </c>
+      <c r="H33">
+        <v>-0.01674427496990814</v>
+      </c>
+      <c r="I33">
+        <v>-0.03481685902761867</v>
+      </c>
+      <c r="J33">
+        <v>0.055702378802026</v>
+      </c>
+      <c r="K33">
+        <v>0.01781136325657154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.004311962464560903</v>
+        <v>0.01734518116000152</v>
       </c>
       <c r="C34">
-        <v>0.05138033286096257</v>
+        <v>-0.04928619085186887</v>
       </c>
       <c r="D34">
-        <v>0.02243519712746161</v>
+        <v>0.0217103929198569</v>
       </c>
       <c r="E34">
-        <v>0.007273741248606878</v>
+        <v>-0.0149016776556566</v>
       </c>
       <c r="F34">
-        <v>-0.01587572557380827</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005647988800357522</v>
+      </c>
+      <c r="G34">
+        <v>-0.006361904204694206</v>
+      </c>
+      <c r="H34">
+        <v>-0.01574870912725675</v>
+      </c>
+      <c r="I34">
+        <v>-0.02871068396098618</v>
+      </c>
+      <c r="J34">
+        <v>-0.00720645021391084</v>
+      </c>
+      <c r="K34">
+        <v>-0.01062721042474455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001525114682249392</v>
+        <v>0.01077955489161916</v>
       </c>
       <c r="C35">
-        <v>0.03177049917613916</v>
+        <v>-0.04704322963387743</v>
       </c>
       <c r="D35">
-        <v>0.01200183057866106</v>
+        <v>0.02318841225235047</v>
       </c>
       <c r="E35">
-        <v>-0.004021211033993399</v>
+        <v>0.005564133637450638</v>
       </c>
       <c r="F35">
-        <v>-0.006076292420625151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.002897657329228952</v>
+      </c>
+      <c r="G35">
+        <v>0.01330023925901603</v>
+      </c>
+      <c r="H35">
+        <v>-0.02956859070756948</v>
+      </c>
+      <c r="I35">
+        <v>-0.1166984338089202</v>
+      </c>
+      <c r="J35">
+        <v>0.1004438729468016</v>
+      </c>
+      <c r="K35">
+        <v>0.0003406677758738361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.008301643887014386</v>
+        <v>0.01369899454249888</v>
       </c>
       <c r="C36">
-        <v>0.05033165650854383</v>
+        <v>-0.04532157399663064</v>
       </c>
       <c r="D36">
-        <v>0.05513106818692947</v>
+        <v>0.04405871879601107</v>
       </c>
       <c r="E36">
-        <v>0.006760837680102577</v>
+        <v>0.006330655152413855</v>
       </c>
       <c r="F36">
-        <v>-0.006380068509052743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01329503241033786</v>
+      </c>
+      <c r="G36">
+        <v>0.01208258207253594</v>
+      </c>
+      <c r="H36">
+        <v>0.02025776274977718</v>
+      </c>
+      <c r="I36">
+        <v>-0.03846255664549659</v>
+      </c>
+      <c r="J36">
+        <v>0.08255356549929951</v>
+      </c>
+      <c r="K36">
+        <v>-0.01781054104439864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02941017648995031</v>
+        <v>0.01053138640403668</v>
       </c>
       <c r="C38">
-        <v>0.04550988104893521</v>
+        <v>-0.05637639158010774</v>
       </c>
       <c r="D38">
-        <v>0.03533242081936388</v>
+        <v>0.03843723280221584</v>
       </c>
       <c r="E38">
-        <v>0.0198778550067684</v>
+        <v>0.04167414833459079</v>
       </c>
       <c r="F38">
-        <v>-0.0001270690691135156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.02830612797298332</v>
+      </c>
+      <c r="G38">
+        <v>-0.003193465273288456</v>
+      </c>
+      <c r="H38">
+        <v>-0.00782642736280975</v>
+      </c>
+      <c r="I38">
+        <v>-0.04950283845141643</v>
+      </c>
+      <c r="J38">
+        <v>0.06520092227130131</v>
+      </c>
+      <c r="K38">
+        <v>0.06905841888013617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.00674487189748796</v>
+        <v>0.02478206840558503</v>
       </c>
       <c r="C39">
-        <v>0.1287130196353485</v>
+        <v>-0.12850276921709</v>
       </c>
       <c r="D39">
-        <v>0.06288404301309591</v>
+        <v>0.06208225541428495</v>
       </c>
       <c r="E39">
-        <v>0.005470217969080874</v>
+        <v>0.006783871360696954</v>
       </c>
       <c r="F39">
-        <v>-0.01228654827059705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0119535085185258</v>
+      </c>
+      <c r="G39">
+        <v>-0.001070862622557655</v>
+      </c>
+      <c r="H39">
+        <v>-0.03060925632183582</v>
+      </c>
+      <c r="I39">
+        <v>-0.05623521420219703</v>
+      </c>
+      <c r="J39">
+        <v>0.01464370429780691</v>
+      </c>
+      <c r="K39">
+        <v>-0.09131123802003753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.006799054534234797</v>
+        <v>0.01495750666391834</v>
       </c>
       <c r="C40">
-        <v>0.04253421077676282</v>
+        <v>-0.0593216116369309</v>
       </c>
       <c r="D40">
-        <v>0.03521535723996904</v>
+        <v>0.04369768899114988</v>
       </c>
       <c r="E40">
-        <v>-0.1076319051358345</v>
+        <v>-0.001195784463800826</v>
       </c>
       <c r="F40">
-        <v>0.06821744763417609</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.006364257381961395</v>
+      </c>
+      <c r="G40">
+        <v>0.03243543447295764</v>
+      </c>
+      <c r="H40">
+        <v>-0.1432143500280422</v>
+      </c>
+      <c r="I40">
+        <v>-0.03907203239247682</v>
+      </c>
+      <c r="J40">
+        <v>0.03789241748179913</v>
+      </c>
+      <c r="K40">
+        <v>-0.02731686908007279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01074923688421578</v>
+        <v>0.0226468757093334</v>
       </c>
       <c r="C41">
-        <v>0.02808421394390961</v>
+        <v>-0.0474475492126204</v>
       </c>
       <c r="D41">
-        <v>0.00146662144292465</v>
+        <v>0.01634922091911987</v>
       </c>
       <c r="E41">
-        <v>0.01517748918061187</v>
+        <v>-0.003076698720626562</v>
       </c>
       <c r="F41">
-        <v>-0.005028360265973773</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007411137314257751</v>
+      </c>
+      <c r="G41">
+        <v>-0.01241058257368946</v>
+      </c>
+      <c r="H41">
+        <v>0.01210328307551062</v>
+      </c>
+      <c r="I41">
+        <v>-0.007437428208989768</v>
+      </c>
+      <c r="J41">
+        <v>0.02471258367927469</v>
+      </c>
+      <c r="K41">
+        <v>0.0253383063549243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004535850824048468</v>
+        <v>0.01939150116904658</v>
       </c>
       <c r="C43">
-        <v>0.02745561650093873</v>
+        <v>-0.04416113047804694</v>
       </c>
       <c r="D43">
-        <v>0.02486848182899457</v>
+        <v>0.02947106348872494</v>
       </c>
       <c r="E43">
-        <v>0.004289644922541321</v>
+        <v>0.002130858166242901</v>
       </c>
       <c r="F43">
-        <v>0.008266016028902852</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007366405215852054</v>
+      </c>
+      <c r="G43">
+        <v>-0.01017780921336806</v>
+      </c>
+      <c r="H43">
+        <v>0.0031984879167049</v>
+      </c>
+      <c r="I43">
+        <v>-0.01818520007168729</v>
+      </c>
+      <c r="J43">
+        <v>0.03156186661523055</v>
+      </c>
+      <c r="K43">
+        <v>-0.001537850367114732</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01540966116018454</v>
+        <v>0.01772400610042518</v>
       </c>
       <c r="C44">
-        <v>0.1034385081812788</v>
+        <v>-0.0978480885891221</v>
       </c>
       <c r="D44">
-        <v>0.04270367461628984</v>
+        <v>0.06077653937437861</v>
       </c>
       <c r="E44">
-        <v>-0.02629543678293444</v>
+        <v>0.02243300305275251</v>
       </c>
       <c r="F44">
-        <v>0.03559088447917464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05711916901322641</v>
+      </c>
+      <c r="G44">
+        <v>0.03691284389888996</v>
+      </c>
+      <c r="H44">
+        <v>-0.03928219068768826</v>
+      </c>
+      <c r="I44">
+        <v>-0.02447079386706727</v>
+      </c>
+      <c r="J44">
+        <v>0.05144966223351945</v>
+      </c>
+      <c r="K44">
+        <v>-0.05280423478253806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006270875979812074</v>
+        <v>0.004998737706219124</v>
       </c>
       <c r="C46">
-        <v>0.06923015878975208</v>
+        <v>-0.06583642841800484</v>
       </c>
       <c r="D46">
-        <v>0.05707548202404682</v>
+        <v>0.02883792552102314</v>
       </c>
       <c r="E46">
-        <v>-0.01609787875773419</v>
+        <v>0.01417317571780694</v>
       </c>
       <c r="F46">
-        <v>-0.01094268718482044</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0139193896773956</v>
+      </c>
+      <c r="G46">
+        <v>0.001774730046024558</v>
+      </c>
+      <c r="H46">
+        <v>-0.01906333003878061</v>
+      </c>
+      <c r="I46">
+        <v>-0.04234465526653051</v>
+      </c>
+      <c r="J46">
+        <v>0.09047034849390378</v>
+      </c>
+      <c r="K46">
+        <v>-0.01923966619604997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.009586636911856345</v>
+        <v>0.02173129447430361</v>
       </c>
       <c r="C47">
-        <v>0.06020775880471187</v>
+        <v>-0.07212157366873979</v>
       </c>
       <c r="D47">
-        <v>0.0442487131818378</v>
+        <v>0.04820316801628483</v>
       </c>
       <c r="E47">
-        <v>0.03087084511446354</v>
+        <v>-0.01978504769117026</v>
       </c>
       <c r="F47">
-        <v>-0.03953564150950673</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002849019388360614</v>
+      </c>
+      <c r="G47">
+        <v>-0.005803528674909938</v>
+      </c>
+      <c r="H47">
+        <v>0.01430277034694096</v>
+      </c>
+      <c r="I47">
+        <v>-0.04253175245230556</v>
+      </c>
+      <c r="J47">
+        <v>0.06066666194672059</v>
+      </c>
+      <c r="K47">
+        <v>0.01331795492852382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.008774334701692296</v>
+        <v>0.01527204838743316</v>
       </c>
       <c r="C48">
-        <v>0.05426293645473071</v>
+        <v>-0.04525970530815712</v>
       </c>
       <c r="D48">
-        <v>0.06311737459228933</v>
+        <v>0.0527297920800127</v>
       </c>
       <c r="E48">
-        <v>0.01862802327261946</v>
+        <v>-0.01639054628068283</v>
       </c>
       <c r="F48">
-        <v>-0.007039940122727114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02650684223768401</v>
+      </c>
+      <c r="G48">
+        <v>0.008913947622408882</v>
+      </c>
+      <c r="H48">
+        <v>0.02675097419905886</v>
+      </c>
+      <c r="I48">
+        <v>-0.05546855926355213</v>
+      </c>
+      <c r="J48">
+        <v>0.1124004667773649</v>
+      </c>
+      <c r="K48">
+        <v>-0.03743364002180553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02275175940116661</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05053340748854702</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01328394540309299</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02963907725054819</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03518898729912306</v>
+      </c>
+      <c r="G49">
+        <v>-0.06617289247552319</v>
+      </c>
+      <c r="H49">
+        <v>-0.06333362689711831</v>
+      </c>
+      <c r="I49">
+        <v>-0.05080962460667397</v>
+      </c>
+      <c r="J49">
+        <v>-0.1112944726189782</v>
+      </c>
+      <c r="K49">
+        <v>-0.04778403904069214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.003264696643675089</v>
+        <v>0.01582400686043334</v>
       </c>
       <c r="C50">
-        <v>0.06228264353273422</v>
+        <v>-0.07568991241620179</v>
       </c>
       <c r="D50">
-        <v>0.03102012277173326</v>
+        <v>0.03363887439473056</v>
       </c>
       <c r="E50">
-        <v>0.003905779496757186</v>
+        <v>-0.01041222459609159</v>
       </c>
       <c r="F50">
-        <v>0.008257529865131117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02087548737880914</v>
+      </c>
+      <c r="G50">
+        <v>0.007339593519165227</v>
+      </c>
+      <c r="H50">
+        <v>0.01568995665677093</v>
+      </c>
+      <c r="I50">
+        <v>-0.05178916568520499</v>
+      </c>
+      <c r="J50">
+        <v>0.03892690066583646</v>
+      </c>
+      <c r="K50">
+        <v>0.05081437831164651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.006237764532906111</v>
+        <v>-0.005003958645894154</v>
       </c>
       <c r="C51">
-        <v>0.073152007766209</v>
+        <v>-0.03541648069071835</v>
       </c>
       <c r="D51">
-        <v>0.04902294898382482</v>
+        <v>0.02479597223102303</v>
       </c>
       <c r="E51">
-        <v>-0.03533615767947114</v>
+        <v>0.02524495929329736</v>
       </c>
       <c r="F51">
-        <v>0.01130150762850088</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007953421182769056</v>
+      </c>
+      <c r="G51">
+        <v>0.02463845895861199</v>
+      </c>
+      <c r="H51">
+        <v>-0.01184903395537826</v>
+      </c>
+      <c r="I51">
+        <v>-0.04037047084251076</v>
+      </c>
+      <c r="J51">
+        <v>0.1025682435287214</v>
+      </c>
+      <c r="K51">
+        <v>-0.02082754987121488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03418173916368842</v>
+        <v>0.06152161935628047</v>
       </c>
       <c r="C53">
-        <v>0.100347025987432</v>
+        <v>-0.1289469977140613</v>
       </c>
       <c r="D53">
-        <v>0.05859441166779775</v>
+        <v>0.05803106064485677</v>
       </c>
       <c r="E53">
-        <v>0.1220491241769575</v>
+        <v>-0.02562531248988385</v>
       </c>
       <c r="F53">
-        <v>-0.01965742984948321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04586361416110685</v>
+      </c>
+      <c r="G53">
+        <v>-0.03998924268138725</v>
+      </c>
+      <c r="H53">
+        <v>0.08583773421707791</v>
+      </c>
+      <c r="I53">
+        <v>0.02776875973661338</v>
+      </c>
+      <c r="J53">
+        <v>-0.01827763399569639</v>
+      </c>
+      <c r="K53">
+        <v>0.02419127139201153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.003166455502525384</v>
+        <v>0.01674475085945605</v>
       </c>
       <c r="C54">
-        <v>0.07151536322194066</v>
+        <v>-0.07066941217066119</v>
       </c>
       <c r="D54">
-        <v>0.01386132129834843</v>
+        <v>0.01343725943478089</v>
       </c>
       <c r="E54">
-        <v>0.02249663259765935</v>
+        <v>-0.01046365787622838</v>
       </c>
       <c r="F54">
-        <v>0.005445789321672698</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001444120536466817</v>
+      </c>
+      <c r="G54">
+        <v>-0.003016001656840816</v>
+      </c>
+      <c r="H54">
+        <v>-0.001644558390894574</v>
+      </c>
+      <c r="I54">
+        <v>-0.02812573014586303</v>
+      </c>
+      <c r="J54">
+        <v>0.05266726654468837</v>
+      </c>
+      <c r="K54">
+        <v>-0.03036584125195293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01266734938041264</v>
+        <v>0.03089608175760734</v>
       </c>
       <c r="C55">
-        <v>0.06867268359674727</v>
+        <v>-0.08008825459012187</v>
       </c>
       <c r="D55">
-        <v>0.058145729724854</v>
+        <v>0.05466304492676123</v>
       </c>
       <c r="E55">
-        <v>0.06208319493222132</v>
+        <v>-0.02546374206257231</v>
       </c>
       <c r="F55">
-        <v>-0.02309643839180442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02597760020925052</v>
+      </c>
+      <c r="G55">
+        <v>-0.0320128285519559</v>
+      </c>
+      <c r="H55">
+        <v>0.03693867560883179</v>
+      </c>
+      <c r="I55">
+        <v>0.0117303462266278</v>
+      </c>
+      <c r="J55">
+        <v>0.00548144064846696</v>
+      </c>
+      <c r="K55">
+        <v>-0.008143687191717808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01351373657751484</v>
+        <v>0.05057831988202317</v>
       </c>
       <c r="C56">
-        <v>0.1370527654817689</v>
+        <v>-0.1497245910610095</v>
       </c>
       <c r="D56">
-        <v>0.06484717979729217</v>
+        <v>0.08286699496177262</v>
       </c>
       <c r="E56">
-        <v>0.09037444314903548</v>
+        <v>-0.05070770864690256</v>
       </c>
       <c r="F56">
-        <v>-0.03224335963295411</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08744209545956826</v>
+      </c>
+      <c r="G56">
+        <v>-0.05088689012345359</v>
+      </c>
+      <c r="H56">
+        <v>0.1567822421584724</v>
+      </c>
+      <c r="I56">
+        <v>0.03780613023001286</v>
+      </c>
+      <c r="J56">
+        <v>-0.04636647376352045</v>
+      </c>
+      <c r="K56">
+        <v>-0.0007507234033315126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03054962753547688</v>
+        <v>0.01782314980204907</v>
       </c>
       <c r="C58">
-        <v>0.2801209117179061</v>
+        <v>-0.1722995582710111</v>
       </c>
       <c r="D58">
-        <v>-0.01445670083650234</v>
+        <v>0.04650593467492083</v>
       </c>
       <c r="E58">
-        <v>-0.1918792812306512</v>
+        <v>0.1191915373000617</v>
       </c>
       <c r="F58">
-        <v>0.1810205586014833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2066781340014152</v>
+      </c>
+      <c r="G58">
+        <v>0.2612084251275658</v>
+      </c>
+      <c r="H58">
+        <v>0.0720340775239085</v>
+      </c>
+      <c r="I58">
+        <v>0.02634276942859434</v>
+      </c>
+      <c r="J58">
+        <v>0.1507478177710153</v>
+      </c>
+      <c r="K58">
+        <v>0.1001262743602333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2913440430292591</v>
+        <v>0.2883032185515848</v>
       </c>
       <c r="C59">
-        <v>-0.008281584577192762</v>
+        <v>0.05487227372685516</v>
       </c>
       <c r="D59">
-        <v>-0.007029987420605368</v>
+        <v>-0.006774289790484311</v>
       </c>
       <c r="E59">
-        <v>-0.06442453686752013</v>
+        <v>0.006114074251564043</v>
       </c>
       <c r="F59">
-        <v>-0.04110611304025387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01451546452882395</v>
+      </c>
+      <c r="G59">
+        <v>0.0568124332964756</v>
+      </c>
+      <c r="H59">
+        <v>0.0007542160746157518</v>
+      </c>
+      <c r="I59">
+        <v>0.01884642787272008</v>
+      </c>
+      <c r="J59">
+        <v>-0.003935881183293101</v>
+      </c>
+      <c r="K59">
+        <v>0.02845348646659979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1274153571451255</v>
+        <v>0.1542335512880033</v>
       </c>
       <c r="C60">
-        <v>0.1445459692910638</v>
+        <v>-0.1598635140363951</v>
       </c>
       <c r="D60">
-        <v>0.07873940445949494</v>
+        <v>0.0397727319636699</v>
       </c>
       <c r="E60">
-        <v>0.1271388209213977</v>
+        <v>-0.1121778894741956</v>
       </c>
       <c r="F60">
-        <v>-0.2362024736941603</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1030301607728431</v>
+      </c>
+      <c r="G60">
+        <v>-0.1039231903499729</v>
+      </c>
+      <c r="H60">
+        <v>-0.2705254167047469</v>
+      </c>
+      <c r="I60">
+        <v>0.1564259544865526</v>
+      </c>
+      <c r="J60">
+        <v>-0.1170759402311199</v>
+      </c>
+      <c r="K60">
+        <v>-0.03169684361869041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.00695595619278847</v>
+        <v>0.0249054037281158</v>
       </c>
       <c r="C61">
-        <v>0.08706763657788609</v>
+        <v>-0.09741256759712218</v>
       </c>
       <c r="D61">
-        <v>0.07079235722513907</v>
+        <v>0.05482724423079935</v>
       </c>
       <c r="E61">
-        <v>0.02946492597834748</v>
+        <v>-0.009655028051671321</v>
       </c>
       <c r="F61">
-        <v>-0.02619309918578686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0136054109957787</v>
+      </c>
+      <c r="G61">
+        <v>-0.01991781911516013</v>
+      </c>
+      <c r="H61">
+        <v>-0.01532824341085523</v>
+      </c>
+      <c r="I61">
+        <v>-0.0604969755697833</v>
+      </c>
+      <c r="J61">
+        <v>0.02073530752251966</v>
+      </c>
+      <c r="K61">
+        <v>-0.03442751688221927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002547119233790812</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01498251714686812</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.004006586513371829</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02516547060371515</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02417535359584816</v>
+      </c>
+      <c r="G62">
+        <v>0.006311985963940825</v>
+      </c>
+      <c r="H62">
+        <v>-0.01561296662123744</v>
+      </c>
+      <c r="I62">
+        <v>-0.01890774614888448</v>
+      </c>
+      <c r="J62">
+        <v>0.007915956988511158</v>
+      </c>
+      <c r="K62">
+        <v>0.00775051156429433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>7.908743544960901e-05</v>
+        <v>0.02680309631844446</v>
       </c>
       <c r="C63">
-        <v>0.05692749614097456</v>
+        <v>-0.06292030113281394</v>
       </c>
       <c r="D63">
-        <v>0.04019981987086063</v>
+        <v>0.06008548576226141</v>
       </c>
       <c r="E63">
-        <v>0.01216128950116355</v>
+        <v>-0.007663456618406794</v>
       </c>
       <c r="F63">
-        <v>0.006846451142564713</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006631355878976763</v>
+      </c>
+      <c r="G63">
+        <v>-0.004891843889230501</v>
+      </c>
+      <c r="H63">
+        <v>0.01593547948109136</v>
+      </c>
+      <c r="I63">
+        <v>-0.05122067506290096</v>
+      </c>
+      <c r="J63">
+        <v>0.04258422333692501</v>
+      </c>
+      <c r="K63">
+        <v>-0.0203617000328748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.001766525144761149</v>
+        <v>0.01854157658346343</v>
       </c>
       <c r="C64">
-        <v>0.0976819639491735</v>
+        <v>-0.09398147456483338</v>
       </c>
       <c r="D64">
-        <v>0.07517461340255963</v>
+        <v>0.03659932605489286</v>
       </c>
       <c r="E64">
-        <v>0.009256689661915247</v>
+        <v>-0.0260812333351526</v>
       </c>
       <c r="F64">
-        <v>0.02201040187404273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04787386640361084</v>
+      </c>
+      <c r="G64">
+        <v>0.009728629463160894</v>
+      </c>
+      <c r="H64">
+        <v>-0.0424106020012984</v>
+      </c>
+      <c r="I64">
+        <v>-0.03213798241093226</v>
+      </c>
+      <c r="J64">
+        <v>0.03555290548623465</v>
+      </c>
+      <c r="K64">
+        <v>-0.08968951502146039</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.0198292783681077</v>
+        <v>0.03350597225644096</v>
       </c>
       <c r="C65">
-        <v>0.08638124977839896</v>
+        <v>-0.09285586247821126</v>
       </c>
       <c r="D65">
-        <v>0.03337397528355612</v>
+        <v>0.02352408260640659</v>
       </c>
       <c r="E65">
-        <v>-0.03123301646890399</v>
+        <v>0.01158404603221326</v>
       </c>
       <c r="F65">
-        <v>-0.01123741379433202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.004623030664691674</v>
+      </c>
+      <c r="G65">
+        <v>-0.009324505682222426</v>
+      </c>
+      <c r="H65">
+        <v>-0.0817356214502819</v>
+      </c>
+      <c r="I65">
+        <v>0.0004083645253043646</v>
+      </c>
+      <c r="J65">
+        <v>0.006155241841921645</v>
+      </c>
+      <c r="K65">
+        <v>-0.07280989951747169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.001059903527713838</v>
+        <v>0.02268235770756326</v>
       </c>
       <c r="C66">
-        <v>0.1749720249777702</v>
+        <v>-0.1700661128873978</v>
       </c>
       <c r="D66">
-        <v>0.04835355118389616</v>
+        <v>0.05425426998457554</v>
       </c>
       <c r="E66">
-        <v>-0.02218040573374014</v>
+        <v>0.009692824387384622</v>
       </c>
       <c r="F66">
-        <v>-0.01378836695015125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01356244530216291</v>
+      </c>
+      <c r="G66">
+        <v>0.01132861200393909</v>
+      </c>
+      <c r="H66">
+        <v>-0.01998746937972808</v>
+      </c>
+      <c r="I66">
+        <v>-0.06795212399885775</v>
+      </c>
+      <c r="J66">
+        <v>0.02088952628519749</v>
+      </c>
+      <c r="K66">
+        <v>-0.0680292319372567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03172254465868757</v>
+        <v>0.02014972042363481</v>
       </c>
       <c r="C67">
-        <v>0.02361600740332719</v>
+        <v>-0.04927202573618104</v>
       </c>
       <c r="D67">
-        <v>0.05149534028706043</v>
+        <v>0.03953194345174007</v>
       </c>
       <c r="E67">
-        <v>0.05588387010310825</v>
+        <v>0.03400528038482919</v>
       </c>
       <c r="F67">
-        <v>-0.02167533958832547</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.003437123908428068</v>
+      </c>
+      <c r="G67">
+        <v>-0.03041371776310208</v>
+      </c>
+      <c r="H67">
+        <v>-0.03431351841447093</v>
+      </c>
+      <c r="I67">
+        <v>-0.02019737019154131</v>
+      </c>
+      <c r="J67">
+        <v>0.06397958114433164</v>
+      </c>
+      <c r="K67">
+        <v>0.05235855432517122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2958990932553969</v>
+        <v>0.2925794135731812</v>
       </c>
       <c r="C68">
-        <v>-0.03058044073894831</v>
+        <v>0.08027122664227293</v>
       </c>
       <c r="D68">
-        <v>0.004073548134101279</v>
+        <v>-0.02723563512854327</v>
       </c>
       <c r="E68">
-        <v>-0.02998499331334806</v>
+        <v>-0.01668393633173557</v>
       </c>
       <c r="F68">
-        <v>0.004608135240355768</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02140043610248337</v>
+      </c>
+      <c r="G68">
+        <v>0.03624540855115486</v>
+      </c>
+      <c r="H68">
+        <v>0.02543788078207287</v>
+      </c>
+      <c r="I68">
+        <v>-0.01224709037069987</v>
+      </c>
+      <c r="J68">
+        <v>0.03330598985604536</v>
+      </c>
+      <c r="K68">
+        <v>0.04026140701241655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01103687847336036</v>
+        <v>0.0105720209198842</v>
       </c>
       <c r="C69">
-        <v>0.05678316038093002</v>
+        <v>-0.04600221163377526</v>
       </c>
       <c r="D69">
-        <v>0.04838323598413363</v>
+        <v>0.0266021070804388</v>
       </c>
       <c r="E69">
-        <v>0.03587735009422229</v>
+        <v>0.002089622497720397</v>
       </c>
       <c r="F69">
-        <v>-0.004743092229720612</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01011348575233756</v>
+      </c>
+      <c r="G69">
+        <v>-0.003816406533407332</v>
+      </c>
+      <c r="H69">
+        <v>-0.01367733639980806</v>
+      </c>
+      <c r="I69">
+        <v>-0.007368767182875781</v>
+      </c>
+      <c r="J69">
+        <v>0.03719372579348884</v>
+      </c>
+      <c r="K69">
+        <v>0.0270744909025466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2847788953859954</v>
+        <v>0.2748003918334695</v>
       </c>
       <c r="C71">
-        <v>-0.04287265671740821</v>
+        <v>0.08035443922734012</v>
       </c>
       <c r="D71">
-        <v>-0.01042175182539106</v>
+        <v>-0.02278963854980178</v>
       </c>
       <c r="E71">
-        <v>-0.02808721006777263</v>
+        <v>0.01003475396510712</v>
       </c>
       <c r="F71">
-        <v>0.0384876048447566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04714473850766103</v>
+      </c>
+      <c r="G71">
+        <v>0.04703565838354298</v>
+      </c>
+      <c r="H71">
+        <v>0.0273812648754077</v>
+      </c>
+      <c r="I71">
+        <v>-0.01339798394946456</v>
+      </c>
+      <c r="J71">
+        <v>0.05273909639576876</v>
+      </c>
+      <c r="K71">
+        <v>0.111410751001939</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01598445811599077</v>
+        <v>0.05735880934641085</v>
       </c>
       <c r="C72">
-        <v>0.142700477547947</v>
+        <v>-0.1357315157062109</v>
       </c>
       <c r="D72">
-        <v>0.06929129572171118</v>
+        <v>0.05332337380064848</v>
       </c>
       <c r="E72">
-        <v>0.006672443927272081</v>
+        <v>-0.04756888287120523</v>
       </c>
       <c r="F72">
-        <v>0.04056331114349152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01932413626803224</v>
+      </c>
+      <c r="G72">
+        <v>-0.02264992212328677</v>
+      </c>
+      <c r="H72">
+        <v>0.01880387275269111</v>
+      </c>
+      <c r="I72">
+        <v>-0.03076319361730843</v>
+      </c>
+      <c r="J72">
+        <v>0.03680546263964717</v>
+      </c>
+      <c r="K72">
+        <v>-0.1072606041836845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09999235150015916</v>
+        <v>0.1586496260425075</v>
       </c>
       <c r="C73">
-        <v>0.1194417939957306</v>
+        <v>-0.1965710246446946</v>
       </c>
       <c r="D73">
-        <v>0.1120603563408973</v>
+        <v>0.07988807745443026</v>
       </c>
       <c r="E73">
-        <v>0.2059382451633472</v>
+        <v>-0.06025564724459487</v>
       </c>
       <c r="F73">
-        <v>-0.2658025277675115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.139776432290459</v>
+      </c>
+      <c r="G73">
+        <v>-0.1991102012132897</v>
+      </c>
+      <c r="H73">
+        <v>-0.4209969712186731</v>
+      </c>
+      <c r="I73">
+        <v>0.1932485588329401</v>
+      </c>
+      <c r="J73">
+        <v>-0.1301510682385885</v>
+      </c>
+      <c r="K73">
+        <v>0.1348937639982173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01471603845784522</v>
+        <v>0.03883082932194126</v>
       </c>
       <c r="C74">
-        <v>0.08076338813722919</v>
+        <v>-0.09654656885061556</v>
       </c>
       <c r="D74">
-        <v>0.068801166763805</v>
+        <v>0.04497701946131635</v>
       </c>
       <c r="E74">
-        <v>0.06966799799121706</v>
+        <v>-0.02321670250511697</v>
       </c>
       <c r="F74">
-        <v>-0.02662586055909097</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.004820599435155304</v>
+      </c>
+      <c r="G74">
+        <v>-0.03191978371812416</v>
+      </c>
+      <c r="H74">
+        <v>0.05332162756091696</v>
+      </c>
+      <c r="I74">
+        <v>0.02083113532925157</v>
+      </c>
+      <c r="J74">
+        <v>0.0274046184443654</v>
+      </c>
+      <c r="K74">
+        <v>-0.01484900203044336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03502281558468329</v>
+        <v>0.06478623634882144</v>
       </c>
       <c r="C75">
-        <v>0.1378575640049055</v>
+        <v>-0.1602803076765556</v>
       </c>
       <c r="D75">
-        <v>0.06251551090852166</v>
+        <v>0.08759016469396216</v>
       </c>
       <c r="E75">
-        <v>0.1526747758165092</v>
+        <v>-0.04216899598680222</v>
       </c>
       <c r="F75">
-        <v>-0.006642058667126651</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02785450578060385</v>
+      </c>
+      <c r="G75">
+        <v>-0.1032637904572967</v>
+      </c>
+      <c r="H75">
+        <v>0.2119457814100824</v>
+      </c>
+      <c r="I75">
+        <v>-0.01074768862456549</v>
+      </c>
+      <c r="J75">
+        <v>-0.04349054986483084</v>
+      </c>
+      <c r="K75">
+        <v>0.1383082541697094</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.008102575776893264</v>
+        <v>0.04614630564174842</v>
       </c>
       <c r="C76">
-        <v>0.104148661442882</v>
+        <v>-0.124501582150921</v>
       </c>
       <c r="D76">
-        <v>0.06317531546461863</v>
+        <v>0.07616179084594099</v>
       </c>
       <c r="E76">
-        <v>0.09331196197456386</v>
+        <v>-0.01902727558937645</v>
       </c>
       <c r="F76">
-        <v>-0.03511634512132517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05495686307785868</v>
+      </c>
+      <c r="G76">
+        <v>-0.06227346826182045</v>
+      </c>
+      <c r="H76">
+        <v>0.07679709708437019</v>
+      </c>
+      <c r="I76">
+        <v>-0.005428006721282757</v>
+      </c>
+      <c r="J76">
+        <v>-0.04689136353723176</v>
+      </c>
+      <c r="K76">
+        <v>-0.02487459311143088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1014811286245544</v>
+        <v>0.05569720083921936</v>
       </c>
       <c r="C77">
-        <v>0.365217411945803</v>
+        <v>-0.4112469753904175</v>
       </c>
       <c r="D77">
-        <v>-0.8527543630411836</v>
+        <v>-0.894167160577879</v>
       </c>
       <c r="E77">
-        <v>0.2613280813276918</v>
+        <v>-0.01889272093987691</v>
       </c>
       <c r="F77">
-        <v>-0.07148522073904501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.00764782075581186</v>
+      </c>
+      <c r="G77">
+        <v>-0.06646319231589515</v>
+      </c>
+      <c r="H77">
+        <v>0.05122416599631655</v>
+      </c>
+      <c r="I77">
+        <v>-0.08550890557377208</v>
+      </c>
+      <c r="J77">
+        <v>-0.001120247964331251</v>
+      </c>
+      <c r="K77">
+        <v>0.02246510773321165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02636869593756104</v>
+        <v>0.0383842958642931</v>
       </c>
       <c r="C78">
-        <v>0.121751652304277</v>
+        <v>-0.1115108976074186</v>
       </c>
       <c r="D78">
-        <v>0.161595445432506</v>
+        <v>0.09298549340247483</v>
       </c>
       <c r="E78">
-        <v>-0.06513292295800438</v>
+        <v>0.03545080469320896</v>
       </c>
       <c r="F78">
-        <v>-0.09848713716614022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04808541403691717</v>
+      </c>
+      <c r="G78">
+        <v>0.01779398130596656</v>
+      </c>
+      <c r="H78">
+        <v>0.1078930608381451</v>
+      </c>
+      <c r="I78">
+        <v>0.01224772974183473</v>
+      </c>
+      <c r="J78">
+        <v>0.06404617114113341</v>
+      </c>
+      <c r="K78">
+        <v>-0.06546743330499875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.0228657293407582</v>
+        <v>0.05857959242648451</v>
       </c>
       <c r="C79">
-        <v>0.1531540682538412</v>
+        <v>-0.1391751086893465</v>
       </c>
       <c r="D79">
-        <v>0.1083008544191149</v>
+        <v>0.06968679532826029</v>
       </c>
       <c r="E79">
-        <v>0.111192468129182</v>
+        <v>-0.02178935756119449</v>
       </c>
       <c r="F79">
-        <v>-0.04670861226519949</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.05267339298097449</v>
+      </c>
+      <c r="G79">
+        <v>-0.03991133714503667</v>
+      </c>
+      <c r="H79">
+        <v>0.2637769305764518</v>
+      </c>
+      <c r="I79">
+        <v>0.0371917234961145</v>
+      </c>
+      <c r="J79">
+        <v>0.02255685021678239</v>
+      </c>
+      <c r="K79">
+        <v>0.0607922335987376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.005527291859284224</v>
+        <v>0.02002461271454606</v>
       </c>
       <c r="C80">
-        <v>0.06176697281372094</v>
+        <v>-0.04548577820498312</v>
       </c>
       <c r="D80">
-        <v>0.03052332111537637</v>
+        <v>0.03637848232926649</v>
       </c>
       <c r="E80">
-        <v>-0.04252847050894433</v>
+        <v>0.0127118252692936</v>
       </c>
       <c r="F80">
-        <v>-0.007568112186477815</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.0250840945426523</v>
+      </c>
+      <c r="G80">
+        <v>0.06246022167468672</v>
+      </c>
+      <c r="H80">
+        <v>-0.08371760605363027</v>
+      </c>
+      <c r="I80">
+        <v>0.01357124068139138</v>
+      </c>
+      <c r="J80">
+        <v>-0.01694678936171173</v>
+      </c>
+      <c r="K80">
+        <v>0.02138432179020741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.001141824298368927</v>
+        <v>0.01732246983342491</v>
       </c>
       <c r="C81">
-        <v>0.0797801539000304</v>
+        <v>-0.09693323275472955</v>
       </c>
       <c r="D81">
-        <v>0.05703044095890376</v>
+        <v>0.0570923656765111</v>
       </c>
       <c r="E81">
-        <v>0.09687542070982527</v>
+        <v>-0.01857448810190291</v>
       </c>
       <c r="F81">
-        <v>-0.02197158447646349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03486444241448661</v>
+      </c>
+      <c r="G81">
+        <v>-0.02435157548186212</v>
+      </c>
+      <c r="H81">
+        <v>0.1150736988693755</v>
+      </c>
+      <c r="I81">
+        <v>-0.004455001309322739</v>
+      </c>
+      <c r="J81">
+        <v>0.04138670459047009</v>
+      </c>
+      <c r="K81">
+        <v>0.04709782084909817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01837997834330542</v>
+        <v>0.04799681194289071</v>
       </c>
       <c r="C82">
-        <v>0.07803332893673461</v>
+        <v>-0.1066039755580646</v>
       </c>
       <c r="D82">
-        <v>0.06834474576287013</v>
+        <v>0.06780432182004534</v>
       </c>
       <c r="E82">
-        <v>0.0988520707394264</v>
+        <v>-0.01344850142795607</v>
       </c>
       <c r="F82">
-        <v>-0.04073812805342641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06241189699239549</v>
+      </c>
+      <c r="G82">
+        <v>-0.04834737663776358</v>
+      </c>
+      <c r="H82">
+        <v>0.08441312488208232</v>
+      </c>
+      <c r="I82">
+        <v>-0.01803038448345944</v>
+      </c>
+      <c r="J82">
+        <v>-0.02722655318867241</v>
+      </c>
+      <c r="K82">
+        <v>0.007030385134851051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01407236882063841</v>
+        <v>0.0002332533811729488</v>
       </c>
       <c r="C83">
-        <v>0.004850496745627756</v>
+        <v>0.0222850168877805</v>
       </c>
       <c r="D83">
-        <v>-0.1225010753530713</v>
+        <v>-0.05365868281366266</v>
       </c>
       <c r="E83">
-        <v>-0.5260923469748465</v>
+        <v>-0.09691326726158134</v>
       </c>
       <c r="F83">
-        <v>-0.7358143931317118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7207039778714111</v>
+      </c>
+      <c r="G83">
+        <v>0.6294853119739203</v>
+      </c>
+      <c r="H83">
+        <v>0.004297891999630071</v>
+      </c>
+      <c r="I83">
+        <v>-0.005071244195674013</v>
+      </c>
+      <c r="J83">
+        <v>-0.1156377587008203</v>
+      </c>
+      <c r="K83">
+        <v>-0.05633595688976014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.004035635336656776</v>
+        <v>0.01495401188810032</v>
       </c>
       <c r="C84">
-        <v>0.0947444944146527</v>
+        <v>-0.06240794855062187</v>
       </c>
       <c r="D84">
-        <v>0.02635977676833518</v>
+        <v>0.08580552260340001</v>
       </c>
       <c r="E84">
-        <v>-0.07444835798765195</v>
+        <v>0.3011089593840927</v>
       </c>
       <c r="F84">
-        <v>0.154548883261296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.09058782944057039</v>
+      </c>
+      <c r="G84">
+        <v>0.07801120244098622</v>
+      </c>
+      <c r="H84">
+        <v>-0.06673615660394014</v>
+      </c>
+      <c r="I84">
+        <v>-0.6544628078439612</v>
+      </c>
+      <c r="J84">
+        <v>-0.5939304121538906</v>
+      </c>
+      <c r="K84">
+        <v>0.1518740059106537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.002629540173195475</v>
+        <v>0.03210960544933419</v>
       </c>
       <c r="C85">
-        <v>0.1019479422723522</v>
+        <v>-0.1131486865842545</v>
       </c>
       <c r="D85">
-        <v>0.06599009509203134</v>
+        <v>0.08195496166438609</v>
       </c>
       <c r="E85">
-        <v>0.1012511799919332</v>
+        <v>-0.02557659038116557</v>
       </c>
       <c r="F85">
-        <v>-0.03820887912515551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08151890961055083</v>
+      </c>
+      <c r="G85">
+        <v>-0.09678222994871978</v>
+      </c>
+      <c r="H85">
+        <v>0.2256320770952307</v>
+      </c>
+      <c r="I85">
+        <v>0.02103605634370766</v>
+      </c>
+      <c r="J85">
+        <v>-0.05753459273762656</v>
+      </c>
+      <c r="K85">
+        <v>0.07371425123380942</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.0137570912825977</v>
+        <v>0.01457603994311934</v>
       </c>
       <c r="C86">
-        <v>0.08572466847601055</v>
+        <v>-0.0795035211776856</v>
       </c>
       <c r="D86">
-        <v>-0.002167075604521448</v>
+        <v>0.03462089406516546</v>
       </c>
       <c r="E86">
-        <v>-0.02087872219798677</v>
+        <v>0.05740216506168314</v>
       </c>
       <c r="F86">
-        <v>0.03956165327295569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02712605946653895</v>
+      </c>
+      <c r="G86">
+        <v>0.07309805415464864</v>
+      </c>
+      <c r="H86">
+        <v>0.04535463029800941</v>
+      </c>
+      <c r="I86">
+        <v>0.09693331688125821</v>
+      </c>
+      <c r="J86">
+        <v>0.07041316720532687</v>
+      </c>
+      <c r="K86">
+        <v>0.1174633292697046</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01721038548004629</v>
+        <v>0.02729152079450591</v>
       </c>
       <c r="C87">
-        <v>0.1633757632769983</v>
+        <v>-0.1178767474442298</v>
       </c>
       <c r="D87">
-        <v>0.04416149703617523</v>
+        <v>0.02048884393039043</v>
       </c>
       <c r="E87">
-        <v>-0.09644707647405397</v>
+        <v>-0.02868303808936135</v>
       </c>
       <c r="F87">
-        <v>0.0781070985508179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03334279791057385</v>
+      </c>
+      <c r="G87">
+        <v>0.03662855001305675</v>
+      </c>
+      <c r="H87">
+        <v>0.01350686296879447</v>
+      </c>
+      <c r="I87">
+        <v>-0.03882722952028321</v>
+      </c>
+      <c r="J87">
+        <v>0.0139576622047468</v>
+      </c>
+      <c r="K87">
+        <v>-0.09122361333243445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.006960681165296983</v>
+        <v>0.03902211303217788</v>
       </c>
       <c r="C88">
-        <v>0.03283006401977477</v>
+        <v>-0.05822253400243062</v>
       </c>
       <c r="D88">
-        <v>0.04048512215107</v>
+        <v>0.03949659133828969</v>
       </c>
       <c r="E88">
-        <v>0.05259016238704355</v>
+        <v>-0.02031719530364181</v>
       </c>
       <c r="F88">
-        <v>-0.01390167324348222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.003004277008803082</v>
+      </c>
+      <c r="G88">
+        <v>-0.02147083363649836</v>
+      </c>
+      <c r="H88">
+        <v>-0.008233686335554893</v>
+      </c>
+      <c r="I88">
+        <v>0.009191592833010895</v>
+      </c>
+      <c r="J88">
+        <v>0.01683888940579521</v>
+      </c>
+      <c r="K88">
+        <v>-0.01639970168668959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4115395434816851</v>
+        <v>0.3888621013426817</v>
       </c>
       <c r="C89">
-        <v>-0.07940464933816355</v>
+        <v>0.1263967813270103</v>
       </c>
       <c r="D89">
-        <v>0.08387328606052642</v>
+        <v>-0.03813148468524216</v>
       </c>
       <c r="E89">
-        <v>-0.06218984682997179</v>
+        <v>-0.008019009623859194</v>
       </c>
       <c r="F89">
-        <v>0.06358424492893112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06494942109359411</v>
+      </c>
+      <c r="G89">
+        <v>0.01110393735086704</v>
+      </c>
+      <c r="H89">
+        <v>-0.01184248555189232</v>
+      </c>
+      <c r="I89">
+        <v>-0.07159296768137155</v>
+      </c>
+      <c r="J89">
+        <v>-0.03552067031624494</v>
+      </c>
+      <c r="K89">
+        <v>-0.7368677535947307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3078935057093235</v>
+        <v>0.3156544717459306</v>
       </c>
       <c r="C90">
-        <v>-0.02665110126413556</v>
+        <v>0.08226475561832565</v>
       </c>
       <c r="D90">
-        <v>0.001565683054173327</v>
+        <v>-0.02169708937729376</v>
       </c>
       <c r="E90">
-        <v>-0.05187698171553959</v>
+        <v>0.008295423137344519</v>
       </c>
       <c r="F90">
-        <v>-0.01939478775505273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01748810969820972</v>
+      </c>
+      <c r="G90">
+        <v>0.0301707690256513</v>
+      </c>
+      <c r="H90">
+        <v>0.002275886017664844</v>
+      </c>
+      <c r="I90">
+        <v>-0.009859413099848717</v>
+      </c>
+      <c r="J90">
+        <v>-0.004817656572513704</v>
+      </c>
+      <c r="K90">
+        <v>0.1064883310419794</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02594964187412676</v>
+        <v>0.05652810196488921</v>
       </c>
       <c r="C91">
-        <v>0.07640426516318993</v>
+        <v>-0.0761614139294088</v>
       </c>
       <c r="D91">
-        <v>0.05949195820030546</v>
+        <v>0.05330659459852552</v>
       </c>
       <c r="E91">
-        <v>0.05275570134513582</v>
+        <v>-0.0401560852196805</v>
       </c>
       <c r="F91">
-        <v>-0.05604174666247284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.05706077406207916</v>
+      </c>
+      <c r="G91">
+        <v>-0.008263742389173979</v>
+      </c>
+      <c r="H91">
+        <v>0.0814283693234137</v>
+      </c>
+      <c r="I91">
+        <v>0.01925819473951059</v>
+      </c>
+      <c r="J91">
+        <v>-0.03421726340429096</v>
+      </c>
+      <c r="K91">
+        <v>0.007240841142768686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3750276562628831</v>
+        <v>0.3494000048171025</v>
       </c>
       <c r="C92">
-        <v>-0.06140081381041369</v>
+        <v>0.1224954048678981</v>
       </c>
       <c r="D92">
-        <v>-0.01083973360605082</v>
+        <v>-0.05466422779766702</v>
       </c>
       <c r="E92">
-        <v>0.00920216893510253</v>
+        <v>-0.001816278239991142</v>
       </c>
       <c r="F92">
-        <v>0.1194313160021143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06079143112730668</v>
+      </c>
+      <c r="G92">
+        <v>0.01422104897878857</v>
+      </c>
+      <c r="H92">
+        <v>0.0168206458190995</v>
+      </c>
+      <c r="I92">
+        <v>-0.02826090823685124</v>
+      </c>
+      <c r="J92">
+        <v>0.05988862966790136</v>
+      </c>
+      <c r="K92">
+        <v>0.1342540936506036</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3073420110509407</v>
+        <v>0.3067998293965846</v>
       </c>
       <c r="C93">
-        <v>-0.07890095844279196</v>
+        <v>0.1253057266966045</v>
       </c>
       <c r="D93">
-        <v>0.00687374560232404</v>
+        <v>-0.009383344144126962</v>
       </c>
       <c r="E93">
-        <v>-0.07835450774770447</v>
+        <v>0.02744262286260901</v>
       </c>
       <c r="F93">
-        <v>0.04545801370502354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02961338713353971</v>
+      </c>
+      <c r="G93">
+        <v>0.03777406394445852</v>
+      </c>
+      <c r="H93">
+        <v>0.040171872110198</v>
+      </c>
+      <c r="I93">
+        <v>-0.0007373911966483806</v>
+      </c>
+      <c r="J93">
+        <v>0.02635796920111083</v>
+      </c>
+      <c r="K93">
+        <v>0.1257453690500801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02593938773509423</v>
+        <v>0.08412304403207163</v>
       </c>
       <c r="C94">
-        <v>0.1853704227387291</v>
+        <v>-0.1615071665883598</v>
       </c>
       <c r="D94">
-        <v>0.1151807265473216</v>
+        <v>0.1140150610016569</v>
       </c>
       <c r="E94">
-        <v>0.1770148546627598</v>
+        <v>-0.04464079811280994</v>
       </c>
       <c r="F94">
-        <v>0.01350003521358493</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.08587217427968333</v>
+      </c>
+      <c r="G94">
+        <v>-0.0976996421643217</v>
+      </c>
+      <c r="H94">
+        <v>0.506358808867103</v>
+      </c>
+      <c r="I94">
+        <v>0.1590104935715425</v>
+      </c>
+      <c r="J94">
+        <v>-0.272539527502709</v>
+      </c>
+      <c r="K94">
+        <v>-0.04872263778438951</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02489946182517638</v>
+        <v>0.04317678281912467</v>
       </c>
       <c r="C95">
-        <v>0.1276336716126389</v>
+        <v>-0.1329321287111618</v>
       </c>
       <c r="D95">
-        <v>0.06079356230171986</v>
+        <v>0.06737672968606802</v>
       </c>
       <c r="E95">
-        <v>0.08295767052389985</v>
+        <v>-0.006349923768874127</v>
       </c>
       <c r="F95">
-        <v>-0.08602841814370499</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02731863209640463</v>
+      </c>
+      <c r="G95">
+        <v>-0.08569488087077991</v>
+      </c>
+      <c r="H95">
+        <v>-0.02787183820938144</v>
+      </c>
+      <c r="I95">
+        <v>-0.1108831468475863</v>
+      </c>
+      <c r="J95">
+        <v>-0.04272139774818387</v>
+      </c>
+      <c r="K95">
+        <v>-0.1796431204288538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0008818908959210988</v>
+        <v>0.02344016458210874</v>
       </c>
       <c r="C97">
-        <v>-0.0005165061547018675</v>
+        <v>-0.02714911983013301</v>
       </c>
       <c r="D97">
-        <v>-0.0001644442324192904</v>
+        <v>0.001551088458146758</v>
       </c>
       <c r="E97">
-        <v>0.0002181843874354501</v>
+        <v>0.04912676266968648</v>
       </c>
       <c r="F97">
-        <v>0.002848689004073627</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.007082369823790631</v>
+      </c>
+      <c r="G97">
+        <v>-0.01887624946271193</v>
+      </c>
+      <c r="H97">
+        <v>-0.01350079705919249</v>
+      </c>
+      <c r="I97">
+        <v>0.01866025061600905</v>
+      </c>
+      <c r="J97">
+        <v>0.03519947409603258</v>
+      </c>
+      <c r="K97">
+        <v>-0.06866816887560361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09323120757653469</v>
+        <v>0.1393194671585184</v>
       </c>
       <c r="C98">
-        <v>0.1554829292863641</v>
+        <v>-0.161208831913466</v>
       </c>
       <c r="D98">
-        <v>0.1393164133381922</v>
+        <v>0.08906107970457418</v>
       </c>
       <c r="E98">
-        <v>0.1409986202584596</v>
+        <v>-0.09083695773428409</v>
       </c>
       <c r="F98">
-        <v>-0.1842721129086927</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1478002515747971</v>
+      </c>
+      <c r="G98">
+        <v>-0.1736502535141806</v>
+      </c>
+      <c r="H98">
+        <v>-0.342695762438638</v>
+      </c>
+      <c r="I98">
+        <v>0.1845600858805166</v>
+      </c>
+      <c r="J98">
+        <v>-0.1718511061847869</v>
+      </c>
+      <c r="K98">
+        <v>0.1273030172542057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03263276188435248</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0685163483561286</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01076856189317081</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9046689847783705</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.2112016920705556</v>
+      </c>
+      <c r="G99">
+        <v>-0.08620098952544138</v>
+      </c>
+      <c r="H99">
+        <v>-0.01574528943333409</v>
+      </c>
+      <c r="I99">
+        <v>0.2469114916306018</v>
+      </c>
+      <c r="J99">
+        <v>0.1145505944105309</v>
+      </c>
+      <c r="K99">
+        <v>-0.07626412082711777</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.006619530514792906</v>
+        <v>0.01792766180863165</v>
       </c>
       <c r="C101">
-        <v>0.08211677807021453</v>
+        <v>-0.08018604270471154</v>
       </c>
       <c r="D101">
-        <v>0.0521825074359142</v>
+        <v>0.04891908435126101</v>
       </c>
       <c r="E101">
-        <v>-0.01055398786375361</v>
+        <v>-0.01718803074406209</v>
       </c>
       <c r="F101">
-        <v>-0.02044805928741672</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03132544297071892</v>
+      </c>
+      <c r="G101">
+        <v>0.02892870365272607</v>
+      </c>
+      <c r="H101">
+        <v>-0.09915839962758979</v>
+      </c>
+      <c r="I101">
+        <v>-0.2012837982375333</v>
+      </c>
+      <c r="J101">
+        <v>0.2032269713427674</v>
+      </c>
+      <c r="K101">
+        <v>-0.0177685175859861</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.002940312352369014</v>
+        <v>0.001752970144196313</v>
       </c>
       <c r="C102">
-        <v>0.0176825136571669</v>
+        <v>-0.007787906565547342</v>
       </c>
       <c r="D102">
-        <v>-0.0008263284376866377</v>
+        <v>-0.001946918781181097</v>
       </c>
       <c r="E102">
-        <v>0.02447087430643572</v>
+        <v>-0.003872619390430527</v>
       </c>
       <c r="F102">
-        <v>-0.01963637390424553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.006729331536987653</v>
+      </c>
+      <c r="G102">
+        <v>-0.003872086944349406</v>
+      </c>
+      <c r="H102">
+        <v>0.005784524569411976</v>
+      </c>
+      <c r="I102">
+        <v>-0.004510844323089145</v>
+      </c>
+      <c r="J102">
+        <v>0.004745103284434652</v>
+      </c>
+      <c r="K102">
+        <v>-0.01577162606154681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
